--- a/data/UPDATED Prediction model elements 9-23-20.xlsx
+++ b/data/UPDATED Prediction model elements 9-23-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilybessette/BWH_DoPE/bwh-pharmacoepi-roybal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8721E5F5-1AB7-DA4B-BD47-2DFE54B77C26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21115215-6697-4546-AB61-4966249015B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="2220" windowWidth="27700" windowHeight="14800" xr2:uid="{C2F9FED0-CC6C-471D-BFDB-D24CB578A8DE}"/>
+    <workbookView xWindow="6780" yWindow="1740" windowWidth="27700" windowHeight="14800" xr2:uid="{C2F9FED0-CC6C-471D-BFDB-D24CB578A8DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430BA2D-1376-4A73-A6BF-6519AF321B4E}">
   <dimension ref="A1:XFD89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -51766,8 +51766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BF7EED-DEC6-0842-B2B5-8B6432F5E5BA}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="171" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="171" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
